--- a/01-beginner/072-hands-on-05.xlsx
+++ b/01-beginner/072-hands-on-05.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="start with this" sheetId="2" r:id="rId1"/>
+    <sheet name="end with this" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,9 +24,42 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+  <si>
+    <t>Disneyland</t>
+  </si>
+  <si>
+    <t>Park Pass for 5 days per person</t>
+  </si>
+  <si>
+    <t>Flight to FAT - LAX per person</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>incidentals</t>
+  </si>
+  <si>
+    <t>total per person</t>
+  </si>
+  <si>
+    <t>number of people</t>
+  </si>
+  <si>
+    <t>total for group</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +67,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="Princess Sofia"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -50,12 +100,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,12 +496,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="43.73046875" customWidth="1"/>
+    <col min="3" max="3" width="16.06640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:3" ht="114" thickTop="1" x14ac:dyDescent="5.55">
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <f>95*6</f>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <f>C4+C5+C6+C7</f>
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="1"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8">
+        <f>C10*C8</f>
+        <v>15850</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B2:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="253" zoomScaleNormal="253" workbookViewId="0">
+      <selection activeCell="C11" sqref="B3:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="43.73046875" customWidth="1"/>
+    <col min="3" max="3" width="16.06640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:3" ht="114" thickTop="1" x14ac:dyDescent="5.55">
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <f>95*6</f>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <f>C4+C5+C6+C7</f>
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="1"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8">
+        <f>C10*C8</f>
+        <v>15850</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
